--- a/biology/Botanique/Henri_Badoux_(botaniste)/Henri_Badoux_(botaniste).xlsx
+++ b/biology/Botanique/Henri_Badoux_(botaniste)/Henri_Badoux_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Badoux ou Henri Badoux-Jaccard[2], né le 22 mai 1871 à Cremin et mort le 1er août 1951 à Zurich, est un ingénieur forestier et botaniste suisse[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Badoux ou Henri Badoux-Jaccard, né le 22 mai 1871 à Cremin et mort le 1er août 1951 à Zurich, est un ingénieur forestier et botaniste suisse.
 </t>
         </is>
       </c>
@@ -511,16 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Henri Badoux est le fils d'Ulysse, juge au tribunal de district et de Lydie[3].
-Il achève ses études secondaires à Lausanne[4] et effectue un stage auprès de l'inspecteur Vogler à Schaffhouse. En 1888, alors âgé de 17 ans, Henri Badoux suit l'enseignement à l'école polytechnique fédérale de Zurich auprès des professeurs Landoldt, Bühler et Kopp[5]. Il obtient son diplôme d'ingénieur forestier en 1891[3]. Il continue ses études à l'université de Munich et effectue des stages réglementaires auprès de M. Bertholet. En 1894, Henri Badoux obtient le brevet fédéral d'éligibilité pour un poste supérieur de l'administration forestière. L'année suivante et durant trois ans, il est assistant à la station fédérale de recherches forestières, sous la direction du Pr Bühler[5].
-En 1899, Henri Badoux prend pour épouse Angèle Jaccard (1878-1928)[3],[6].
-Durant les années 1898 à 1915, Henri Badoux est inspecteur d'arrondissement à Montreux[3]. Il devient professeur à l'école polytechnique fédérale de Zurich (EPFZ) de 1915 à 1941, dans la discipline de l'agriculture et la sylviculture, les thématiques développées portent sur la politique forestière et protection de la forêt[2],[3]. Parallèlement, de 1915 à 1933, il est directeur de l'Institut fédéral de recherches forestières à Zurich et rédacteur du Journal forestier suisse de 1915 à 1945[3],[7].
-D'une bonne santé, Henri Badoux a conduit la destinée de l'école forestière dans les moments difficiles et a surmonté la douleur causée par le départ prématuré de son épouse et d'un de ses fils[8].
-Hommages
-Membre d'honneur de la Société forestière suisse et de la Société vaudoise de sylviculture[3] ;
-Doyen de l'école forestière fédérale de Zurich[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Badoux est le fils d'Ulysse, juge au tribunal de district et de Lydie.
+Il achève ses études secondaires à Lausanne et effectue un stage auprès de l'inspecteur Vogler à Schaffhouse. En 1888, alors âgé de 17 ans, Henri Badoux suit l'enseignement à l'école polytechnique fédérale de Zurich auprès des professeurs Landoldt, Bühler et Kopp. Il obtient son diplôme d'ingénieur forestier en 1891. Il continue ses études à l'université de Munich et effectue des stages réglementaires auprès de M. Bertholet. En 1894, Henri Badoux obtient le brevet fédéral d'éligibilité pour un poste supérieur de l'administration forestière. L'année suivante et durant trois ans, il est assistant à la station fédérale de recherches forestières, sous la direction du Pr Bühler.
+En 1899, Henri Badoux prend pour épouse Angèle Jaccard (1878-1928),.
+Durant les années 1898 à 1915, Henri Badoux est inspecteur d'arrondissement à Montreux. Il devient professeur à l'école polytechnique fédérale de Zurich (EPFZ) de 1915 à 1941, dans la discipline de l'agriculture et la sylviculture, les thématiques développées portent sur la politique forestière et protection de la forêt,. Parallèlement, de 1915 à 1933, il est directeur de l'Institut fédéral de recherches forestières à Zurich et rédacteur du Journal forestier suisse de 1915 à 1945,.
+D'une bonne santé, Henri Badoux a conduit la destinée de l'école forestière dans les moments difficiles et a surmonté la douleur causée par le départ prématuré de son épouse et d'un de ses fils.
+</t>
         </is>
       </c>
     </row>
@@ -545,10 +557,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Membre d'honneur de la Société forestière suisse et de la Société vaudoise de sylviculture ;
+Doyen de l'école forestière fédérale de Zurich.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Henri_Badoux_(botaniste)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Badoux_(botaniste)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(Liste non exhaustive, classée par années d'éditions)
 Guide pour la course du 1er août dans l'arrondissement de Vevey, Lausanne, Impr. P. Fatio, 1906, s.p., in-8° (OCLC 994742120)
